--- a/biology/Zoologie/Causses_du_Lot_(race_ovine)/Causses_du_Lot_(race_ovine).xlsx
+++ b/biology/Zoologie/Causses_du_Lot_(race_ovine)/Causses_du_Lot_(race_ovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Causses du Lot (ou Caussenarde du Lot) est une race ovine française originaire des plateaux calcaires du Lot : les Causses du Quercy. C'est une brebis de grand format à la toison et la tête blanche, caractéristique par ses oreilles et ses lunettes noires. Elle est rustique, facile à désaisonner, aux bonnes qualités maternelles, qui gagne à être croisée avec des races mieux conformées pour améliorer la valeur bouchère des agneaux. Un système de croisements ou schéma de sélection à double étage est d'ailleurs bien développé au sein de la race. La  Causses du Lot n'est sélectionnée que depuis la seconde partie du XXe siècle. Aujourd'hui, on cherche surtout à travailler la valeur laitière, la conformation, la prolificité de la race. On compte environ 110 000 femelles essentiellement élevées dans le département du Lot. Cette race représente plus de la moitié du cheptel ovin départemental.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brebis Causses du Lot est rattachée au rameau des races rustiques des Pyrénées. Elle est issue d'une très ancienne souche de brebis qui vivait sur le versant nord de la Garonne. Elle est élevée depuis très longtemps sur les plateaux calcaires du Lot auxquels elle doit son nom et sur lesquels, elle a développé sa forte charpente.  
 Sa sélection, longtemps informelle, est mieux organisée à partir de la seconde moitié du XXe siècle. 
@@ -547,7 +561,9 @@
           <t>Standard de race</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brebis Causses du Lot est une race rustique et locale de taille moyenne à grande. Elle est facilement reconnaissable grâce aux taches noires qu’elle a autour des yeux et sur ses oreilles. Mâles et femelles sont mottes (sans cornes). Sa solide charpente lui confère une bonne aptitude à la marche sur les plateaux calcaires du Lot. En ce qui concerne sa toison, elle recouvre la totalité du corps de l'animal. Elle est fournie et composée de laine jarreuse (le jarre est un poil très rigide) de qualité moyenne lui permettant de rester en plein air la majorité de l'année.
 Cette race est docile et maternelle. Elle est également réputée pour ses facilités de désaisonnement : contrairement à d’autres races ovines, elle est capable de donner naissance à des agneaux à n’importe quelle saison.  
@@ -579,10 +595,12 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race rustique qui se contente de la maigre végétation caussenarde, consommant des ligneux si besoin. Elle est résistante à la chaleur qui règne dans sa région d'origine, et est bonne marcheuse[1].
-La brebis a une prolificité moyenne avec environ 1,5 agneau par an. Cependant, sa lactation est suffisante pour bien nourrir ses petits. Son rythme de reproduction permet d'avoir trois agnelages en deux ans car son désaisonnement est facile[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race rustique qui se contente de la maigre végétation caussenarde, consommant des ligneux si besoin. Elle est résistante à la chaleur qui règne dans sa région d'origine, et est bonne marcheuse.
+La brebis a une prolificité moyenne avec environ 1,5 agneau par an. Cependant, sa lactation est suffisante pour bien nourrir ses petits. Son rythme de reproduction permet d'avoir trois agnelages en deux ans car son désaisonnement est facile.
 La conformation de carcasse des agneaux est bonne mais de nombreux troupeaux utilisent un croisement entre brebis du Lot et béliers île-de-France plus trapus afin de mieux valoriser leurs carcasses. Le croisement donne des agneaux aux gigots ronds et lourds, adaptés au marché de cette viande. Ils peuvent être commercialisés sous le Label rouge Agneau fermier du Quercy.
 </t>
         </is>
@@ -612,10 +630,12 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les systèmes caussenards traditionnels, les moutons passent la majeure partie de l'année dehors, ne rentrant que pour l'hiver. Les troupeaux sont de taille assez importante (entre 300 et 600 brebis reproductrices en général). Les agnelages ont majoritairement lieu l'automne, bien qu'il existe aussi une mise bas de printemps dans les systèmes pratiquant un rythme de reproduction accéléré avec trois agnelages en deux ans.
-Les agneaux, élevés sous la mère, sont abattus autour de 37 à 42 kg. Ils sont souvent issus de croisements entre brebis causses du Lot et béliers de races à bonnes aptitudes bouchères comme le berrichon du Cher, le suffolk ou le mouton Charollais, afin d'améliorer leur conformation et donc de mieux les valoriser[1]. 
+Les agneaux, élevés sous la mère, sont abattus autour de 37 à 42 kg. Ils sont souvent issus de croisements entre brebis causses du Lot et béliers de races à bonnes aptitudes bouchères comme le berrichon du Cher, le suffolk ou le mouton Charollais, afin d'améliorer leur conformation et donc de mieux les valoriser. 
 L’agneau Causses du Lot est prisé pour sa viande claire, tendre et au goût délicat. Il est principalement commercialisé sous l’appellation « Agneau Fermier du Quercy ». Ce dernier est vendu à l’échelle nationale dans les boucheries et magasins qui ont signé un accord avec les éleveurs pour garantir aux consommateurs l’origine et la qualité de la viande.
 L’Agneau Fermier du Quercy bénéficie d’une double garantie :
 Origine : Grâce à l’IGP (Indication Géographique Protégée), on reconnaît que la qualité de la viande est en lien avec son terroir.
@@ -649,9 +669,11 @@
           <t>Sélection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le schéma de sélection de la race, géré par l'organisme de sélection Ovilot, peut compter sur une cinquantaine d'éleveurs détenant 30 000 animaux inscrits contrôlés. Il vise principalement à améliorer les qualités maternelles de la race, à travers la valeur laitière des mères et leur prolificité[3]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le schéma de sélection de la race, géré par l'organisme de sélection Ovilot, peut compter sur une cinquantaine d'éleveurs détenant 30 000 animaux inscrits contrôlés. Il vise principalement à améliorer les qualités maternelles de la race, à travers la valeur laitière des mères et leur prolificité. 
 Ovilot dispose également d'une station de contrôle individuel (SCI) des meilleurs jeunes béliers de la race et d'un centre d'insémination artificielle (CIA), respectivement situés à Lavergne et Lunegarde.
 L’OES Ovilot propose tous les services liés à la génétique ovine de la race Causses du Lot avec 3 grandes missions décrites ci-dessous. 
 1. Mise en place du service génétique, sanitaire et technique aux éleveurs
@@ -690,7 +712,9 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son élevage est centré sur sa région de naissance, le département du Lot. Cependant ses qualités de rusticité lui ont permis de déborder sur les départements voisins.
 </t>
